--- a/Excel2Json/Test/sfx.xlsx
+++ b/Excel2Json/Test/sfx.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="sfx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -32,15 +32,7 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -377,10 +369,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>i</t>
     </r>
@@ -484,11 +472,59 @@
   <si>
     <t>蜘蛛侠普攻6特效</t>
   </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[100]</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;64</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;128</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -669,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -774,6 +810,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,7 +835,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -868,23 +910,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -920,23 +945,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1115,13 +1123,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.25" style="2" bestFit="1" customWidth="1"/>
@@ -1134,22 +1142,22 @@
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
@@ -1172,7 +1180,7 @@
     </row>
     <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>3</v>
@@ -1181,13 +1189,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>0</v>
@@ -1210,22 +1218,22 @@
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>86</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>0</v>
@@ -1247,23 +1255,23 @@
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>66</v>
+      <c r="A4" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>0</v>
@@ -1289,13 +1297,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="14" t="str">
         <f t="shared" ref="E5:E19" si="0">CONCATENATE($D$5,B5,$D$4)</f>
@@ -1313,10 +1321,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1334,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1352,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1370,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1388,7 +1396,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1406,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="14" t="str">
         <f>CONCATENATE($D$5,B11,$D$4)</f>
@@ -1424,7 +1432,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1442,7 +1450,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1460,7 +1468,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1478,7 +1486,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1496,7 +1504,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1514,7 +1522,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1532,7 +1540,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1550,7 +1558,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E19" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1568,10 +1576,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" s="10" t="str">
         <f t="shared" ref="E20:E42" si="1">CONCATENATE($D$20,B20,$D$4)</f>
@@ -1589,7 +1597,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="10" t="str">
@@ -1608,7 +1616,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1626,7 +1634,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1644,7 +1652,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E24" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1662,7 +1670,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1680,7 +1688,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E26" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1698,7 +1706,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E27" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1716,7 +1724,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E28" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1734,7 +1742,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1752,7 +1760,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E30" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1770,7 +1778,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1788,7 +1796,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E32" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1806,7 +1814,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E33" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1824,7 +1832,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E34" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1842,7 +1850,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E35" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1860,7 +1868,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E36" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1878,10 +1886,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="10" t="str">
@@ -1897,10 +1905,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="str">
@@ -1916,10 +1924,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="str">
@@ -1935,10 +1943,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="str">
@@ -1954,10 +1962,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="str">
@@ -1973,10 +1981,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17" t="str">
@@ -1992,13 +2000,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="E43" s="10" t="str">
         <f>CONCATENATE($D$43,B43,$D$4)</f>
@@ -2013,13 +2021,13 @@
         <v>40</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E44" s="17" t="str">
         <f>CONCATENATE($D$44,B44,$D$4)</f>
@@ -2037,10 +2045,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E45" s="14" t="str">
         <f t="shared" ref="E45:E50" si="2">CONCATENATE($D$5,B45,$D$4)</f>
@@ -2055,10 +2063,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E46" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2073,10 +2081,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E47" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2091,10 +2099,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E48" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2109,10 +2117,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E49" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2127,10 +2135,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E50" s="14" t="str">
         <f t="shared" si="2"/>
